--- a/data/trans_dic/P35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,81; 33,4</t>
+          <t>27,61; 33,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,79; 42,21</t>
+          <t>36,04; 42,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,47; 45,76</t>
+          <t>38,72; 45,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 47,69</t>
+          <t>40,2; 47,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,41; 35,48</t>
+          <t>30,27; 35,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,88; 47,74</t>
+          <t>42,27; 47,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 52,98</t>
+          <t>45,8; 52,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 53,01</t>
+          <t>47,24; 52,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,96</t>
+          <t>30,06; 33,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,29; 44,63</t>
+          <t>40,33; 44,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,82; 48,74</t>
+          <t>44,06; 48,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,13; 49,98</t>
+          <t>45,48; 50,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 12,74</t>
+          <t>9,62; 12,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,23</t>
+          <t>19,36; 23,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,07</t>
+          <t>22,19; 26,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 35,98</t>
+          <t>30,68; 36,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 16,58</t>
+          <t>12,92; 16,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,94; 30,24</t>
+          <t>25,92; 30,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 31,68</t>
+          <t>27,69; 31,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 38,3</t>
+          <t>29,84; 38,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 14,11</t>
+          <t>11,65; 14,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 25,92</t>
+          <t>22,95; 25,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,27; 28,04</t>
+          <t>25,37; 28,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 36,35</t>
+          <t>31,49; 36,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 16,0</t>
+          <t>10,11; 16,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 23,05</t>
+          <t>15,32; 23,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 27,82</t>
+          <t>20,21; 27,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,46; 36,96</t>
+          <t>29,16; 37,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,98</t>
+          <t>9,9; 16,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,87; 32,56</t>
+          <t>23,75; 32,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,21; 32,1</t>
+          <t>24,08; 32,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 31,63</t>
+          <t>25,05; 31,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,34</t>
+          <t>10,99; 15,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,23; 26,12</t>
+          <t>19,93; 26,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,16; 28,57</t>
+          <t>23,02; 28,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,09; 32,98</t>
+          <t>28,02; 33,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,26; 18,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 27,58</t>
+          <t>24,43; 27,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 29,67</t>
+          <t>26,55; 29,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,81; 36,88</t>
+          <t>32,64; 37,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,27; 23,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,03</t>
+          <t>32,84; 36,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 36,65</t>
+          <t>33,39; 36,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,55; 39,36</t>
+          <t>33,39; 39,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,62; 20,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,09; 31,47</t>
+          <t>29,1; 31,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 32,66</t>
+          <t>30,3; 32,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,18; 37,67</t>
+          <t>34,15; 37,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,61; 33,53</t>
+          <t>27,48; 33,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,04; 42,35</t>
+          <t>36,1; 42,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,72; 45,75</t>
+          <t>38,41; 45,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,27; 35,63</t>
+          <t>30,37; 35,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,27; 47,82</t>
+          <t>42,29; 47,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,8; 52,72</t>
+          <t>45,93; 52,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 33,86</t>
+          <t>29,92; 33,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,33; 44,68</t>
+          <t>40,4; 44,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,06; 48,95</t>
+          <t>43,77; 48,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 12,64</t>
+          <t>9,68; 12,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,36; 23,32</t>
+          <t>19,26; 23,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,01</t>
+          <t>22,02; 25,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,92; 16,61</t>
+          <t>13,05; 16,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,92; 30,54</t>
+          <t>25,93; 30,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 31,65</t>
+          <t>27,59; 31,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 14,02</t>
+          <t>11,66; 14,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,95; 25,93</t>
+          <t>23,02; 26,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,37; 28,28</t>
+          <t>25,39; 28,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,56</t>
+          <t>10,2; 16,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 23,14</t>
+          <t>14,71; 23,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,21; 27,63</t>
+          <t>20,03; 27,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 16,37</t>
+          <t>9,7; 16,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 32,49</t>
+          <t>23,67; 32,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 32,05</t>
+          <t>23,97; 31,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,32</t>
+          <t>10,69; 15,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 26,16</t>
+          <t>20,2; 26,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,02; 28,3</t>
+          <t>23,26; 28,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,98</t>
+          <t>16,15; 18,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,75</t>
+          <t>24,41; 27,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,55; 29,61</t>
+          <t>26,45; 29,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,04</t>
+          <t>20,08; 23,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,84; 36,06</t>
+          <t>32,74; 36,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,39; 36,49</t>
+          <t>33,22; 36,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,52</t>
+          <t>18,52; 20,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,1; 31,41</t>
+          <t>29,13; 31,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,3; 32,61</t>
+          <t>30,52; 32,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,48; 33,34</t>
+          <t>27,81; 33,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,1; 42,49</t>
+          <t>35,79; 42,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,41; 45,61</t>
+          <t>38,47; 45,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,2; 47,72</t>
+          <t>39,59; 47,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,37; 35,66</t>
+          <t>30,41; 35,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,29; 47,82</t>
+          <t>41,88; 47,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,93; 52,97</t>
+          <t>46,1; 52,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,24; 52,81</t>
+          <t>47,38; 53,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,92; 33,84</t>
+          <t>29,96; 33,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,4; 44,63</t>
+          <t>40,29; 44,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,77; 48,8</t>
+          <t>43,82; 48,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,48; 50,13</t>
+          <t>45,13; 49,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 12,75</t>
+          <t>9,57; 12,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 23,22</t>
+          <t>19,39; 23,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,97</t>
+          <t>22,19; 26,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,68; 36,03</t>
+          <t>30,57; 35,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 16,56</t>
+          <t>12,97; 16,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,93; 30,35</t>
+          <t>25,94; 30,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,59; 31,63</t>
+          <t>27,53; 31,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,84; 38,32</t>
+          <t>29,79; 38,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 14,05</t>
+          <t>11,61; 14,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 26,0</t>
+          <t>23,03; 25,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 28,37</t>
+          <t>25,27; 28,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,49; 36,37</t>
+          <t>31,1; 36,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 16,31</t>
+          <t>10,3; 16,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 23,04</t>
+          <t>15,05; 23,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,03; 27,76</t>
+          <t>20,01; 27,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,16; 37,02</t>
+          <t>29,46; 36,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 16,05</t>
+          <t>9,91; 15,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,67; 32,66</t>
+          <t>23,87; 32,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,97; 31,4</t>
+          <t>24,21; 32,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,05; 31,36</t>
+          <t>25,22; 31,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,3</t>
+          <t>10,79; 15,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,2; 26,13</t>
+          <t>20,23; 26,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,26; 28,78</t>
+          <t>23,16; 28,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,02; 33,02</t>
+          <t>28,09; 32,98</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 18,8</t>
+          <t>16,28; 18,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,41; 27,71</t>
+          <t>24,31; 27,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,45; 29,59</t>
+          <t>26,4; 29,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 37,03</t>
+          <t>32,81; 36,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 23,01</t>
+          <t>20,18; 23,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,74; 36,21</t>
+          <t>32,8; 36,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,22; 36,69</t>
+          <t>33,35; 36,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,39; 39,12</t>
+          <t>33,55; 39,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 20,57</t>
+          <t>18,61; 20,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,13; 31,34</t>
+          <t>29,09; 31,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,52; 32,75</t>
+          <t>30,31; 32,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,15; 37,64</t>
+          <t>34,18; 37,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>46,32%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 47,69</t>
+          <t>38,0; 46,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 53,01</t>
+          <t>46,39; 51,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,13; 49,98</t>
+          <t>43,95; 48,68</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>30,38%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 35,98</t>
+          <t>21,18; 33,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 38,3</t>
+          <t>22,84; 36,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 36,35</t>
+          <t>24,44; 33,88</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>29,72%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,46; 36,96</t>
+          <t>28,42; 36,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 31,63</t>
+          <t>24,83; 31,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,09; 32,98</t>
+          <t>27,47; 32,23</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>33,1%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,81; 36,88</t>
+          <t>24,09; 34,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,55; 39,36</t>
+          <t>27,84; 37,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,18; 37,67</t>
+          <t>28,39; 35,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P35-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,81; 33,4</t>
+          <t>27,47; 33,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,79; 42,21</t>
+          <t>35,78; 42,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,47; 45,76</t>
+          <t>38,63; 45,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,0; 46,32</t>
+          <t>38,95; 46,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,41; 35,48</t>
+          <t>30,2; 35,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,88; 47,74</t>
+          <t>42,2; 48,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 52,98</t>
+          <t>46,21; 52,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,39; 51,78</t>
+          <t>46,07; 51,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,96</t>
+          <t>30,04; 33,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,29; 44,63</t>
+          <t>40,34; 44,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,82; 48,74</t>
+          <t>43,92; 48,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,95; 48,68</t>
+          <t>44,02; 48,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 12,74</t>
+          <t>9,65; 12,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 23,23</t>
+          <t>19,44; 23,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,07</t>
+          <t>22,25; 25,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,18; 33,23</t>
+          <t>20,46; 33,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 16,58</t>
+          <t>12,97; 16,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,94; 30,24</t>
+          <t>25,72; 30,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 31,68</t>
+          <t>27,46; 31,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 36,11</t>
+          <t>21,96; 36,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 14,11</t>
+          <t>11,56; 13,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 25,92</t>
+          <t>22,85; 25,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,27; 28,04</t>
+          <t>25,35; 28,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,88</t>
+          <t>24,01; 33,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 16,0</t>
+          <t>10,1; 16,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,05; 23,05</t>
+          <t>15,06; 23,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 27,82</t>
+          <t>20,08; 27,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,42; 36,05</t>
+          <t>28,1; 35,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,98</t>
+          <t>9,87; 16,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,87; 32,56</t>
+          <t>23,36; 32,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,21; 32,1</t>
+          <t>23,91; 31,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 31,18</t>
+          <t>24,64; 30,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,34</t>
+          <t>10,74; 15,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,23; 26,12</t>
+          <t>20,39; 26,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,16; 28,57</t>
+          <t>23,14; 28,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 32,23</t>
+          <t>27,3; 32,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,79</t>
+          <t>16,12; 18,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 27,58</t>
+          <t>24,39; 27,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 29,67</t>
+          <t>26,28; 29,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,09; 34,55</t>
+          <t>25,2; 34,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,21</t>
+          <t>20,04; 22,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,03</t>
+          <t>32,65; 35,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 36,65</t>
+          <t>33,28; 36,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,84; 37,77</t>
+          <t>27,66; 37,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 20,5</t>
+          <t>18,67; 20,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,09; 31,47</t>
+          <t>29,12; 31,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 32,66</t>
+          <t>30,18; 32,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,39; 35,57</t>
+          <t>28,67; 35,68</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que su médico le ha aconsejado hacer algún tipo de ejercicio físico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>300113</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>372456</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>311273</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>218432</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>412727</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>585635</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>485860</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>368488</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>712840</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>958091</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>797134</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>586920</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>269402; 329809</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>341876; 407563</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>285713; 338147</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>200559; 240256</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>378925; 444381</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>548929; 625838</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>454240; 517647</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>346516; 389960</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>671439; 756145</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>910242; 1008478</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>756519; 840041</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>557773; 615692</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>178309</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>403401</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>492145</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>665122</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>221118</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>476790</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>579662</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>709944</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>399426</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>880191</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1071807</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1375066</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>155739; 205725</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>368569; 441516</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>455530; 529857</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>468696; 763917</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>194773; 251222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>437857; 515985</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>539916; 619459</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>491046; 814688</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>360054; 434596</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>822148; 931649</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1017530; 1133702</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1086852; 1535456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68900</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>87147</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>126981</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>206304</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57761</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>123853</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>148945</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>182087</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>126661</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>211000</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>275926</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>388392</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53715; 87369</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70683; 108143</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>107539; 148681</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>181704; 230851</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44633; 73486</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>103830; 143809</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>128206; 170157</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>162653; 203244</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>105724; 149935</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>186268; 238142</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>248017; 307651</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>356717; 420449</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2069</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>547321</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>863004</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>930400</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1089858</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>691606</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1186279</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1214467</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1260519</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1238927</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2049282</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2144867</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2350378</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>504055; 589433</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>809778; 915975</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>873269; 985004</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>869759; 1200154</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>643049; 737446</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1125842; 1238727</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1160099; 1278195</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1009101; 1365611</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1182969; 1304283</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1971237; 2132952</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2054854; 2224443</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2035421; 2533292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>